--- a/BB_answers.xlsx
+++ b/BB_answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirm\Desktop\python_languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57914B84-F2C8-4EB5-A033-66854F4A6120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B25B3-B573-4A14-B31A-4133AB7F1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15A7B7C4-6F69-445D-AB8A-5015AB3D7AEA}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{15A7B7C4-6F69-445D-AB8A-5015AB3D7AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="1868">
   <si>
     <t>0001</t>
   </si>
@@ -5344,6 +5344,303 @@
   </si>
   <si>
     <t>L2</t>
+  </si>
+  <si>
+    <t>BB00703</t>
+  </si>
+  <si>
+    <t>BB00702</t>
+  </si>
+  <si>
+    <t>BB00634</t>
+  </si>
+  <si>
+    <t>BB00635</t>
+  </si>
+  <si>
+    <t>BB00701</t>
+  </si>
+  <si>
+    <t>BB00705</t>
+  </si>
+  <si>
+    <t>BB00685</t>
+  </si>
+  <si>
+    <t>BB00708</t>
+  </si>
+  <si>
+    <t>BB00704</t>
+  </si>
+  <si>
+    <t>BB00709</t>
+  </si>
+  <si>
+    <t>BB00698</t>
+  </si>
+  <si>
+    <t>BB00710</t>
+  </si>
+  <si>
+    <t>BB00715</t>
+  </si>
+  <si>
+    <t>BB00719</t>
+  </si>
+  <si>
+    <t>BB00720</t>
+  </si>
+  <si>
+    <t>BB00718</t>
+  </si>
+  <si>
+    <t>BB00716</t>
+  </si>
+  <si>
+    <t>BB00717</t>
+  </si>
+  <si>
+    <t>BB00714</t>
+  </si>
+  <si>
+    <t>BB00726</t>
+  </si>
+  <si>
+    <t>BB00725</t>
+  </si>
+  <si>
+    <t>BBJ_L_17</t>
+  </si>
+  <si>
+    <t>BB00697</t>
+  </si>
+  <si>
+    <t>BB00724</t>
+  </si>
+  <si>
+    <t>BB00729</t>
+  </si>
+  <si>
+    <t>BB00732</t>
+  </si>
+  <si>
+    <t>BB00723</t>
+  </si>
+  <si>
+    <t>Bb00730</t>
+  </si>
+  <si>
+    <t>BB00733</t>
+  </si>
+  <si>
+    <t>BB00740</t>
+  </si>
+  <si>
+    <t>BB00736</t>
+  </si>
+  <si>
+    <t>BB00722</t>
+  </si>
+  <si>
+    <t>BB00741</t>
+  </si>
+  <si>
+    <t>BBJ_L_19</t>
+  </si>
+  <si>
+    <t>BB00735</t>
+  </si>
+  <si>
+    <t>BB00738</t>
+  </si>
+  <si>
+    <t>BBJ_L_23</t>
+  </si>
+  <si>
+    <t>BB00747</t>
+  </si>
+  <si>
+    <t>BB00742</t>
+  </si>
+  <si>
+    <t>BB00744</t>
+  </si>
+  <si>
+    <t>BB00743</t>
+  </si>
+  <si>
+    <t>BJJ_P_1</t>
+  </si>
+  <si>
+    <t>BB00745</t>
+  </si>
+  <si>
+    <t>BB00751</t>
+  </si>
+  <si>
+    <t>BB00752</t>
+  </si>
+  <si>
+    <t>BB00749</t>
+  </si>
+  <si>
+    <t>BB00753</t>
+  </si>
+  <si>
+    <t>BB00754</t>
+  </si>
+  <si>
+    <t>BB00755</t>
+  </si>
+  <si>
+    <t>BB00748</t>
+  </si>
+  <si>
+    <t>BJJ_P_3</t>
+  </si>
+  <si>
+    <t>BB00757</t>
+  </si>
+  <si>
+    <t>BB00759</t>
+  </si>
+  <si>
+    <t>BB00761</t>
+  </si>
+  <si>
+    <t>BBOO760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BB00758</t>
+  </si>
+  <si>
+    <t>BJJ_L_27</t>
+  </si>
+  <si>
+    <t>BB00763</t>
+  </si>
+  <si>
+    <t>BB00764</t>
+  </si>
+  <si>
+    <t>BB00765</t>
+  </si>
+  <si>
+    <t>BJJ_P_5</t>
+  </si>
+  <si>
+    <t>BB00768</t>
+  </si>
+  <si>
+    <t>BJJ_P_6</t>
+  </si>
+  <si>
+    <t>BB00769</t>
+  </si>
+  <si>
+    <t>BB00770</t>
+  </si>
+  <si>
+    <t>BJJ_L_29</t>
+  </si>
+  <si>
+    <t>BB00772</t>
+  </si>
+  <si>
+    <t>BJJ_L_30</t>
+  </si>
+  <si>
+    <t>bb00775</t>
+  </si>
+  <si>
+    <t>BB00771</t>
+  </si>
+  <si>
+    <t>BB00778</t>
+  </si>
+  <si>
+    <t>BB00779</t>
+  </si>
+  <si>
+    <t>BB00780</t>
+  </si>
+  <si>
+    <t>BB00773</t>
+  </si>
+  <si>
+    <t>Bb00776</t>
+  </si>
+  <si>
+    <t>BJJ_L_31</t>
+  </si>
+  <si>
+    <t>BB00774</t>
+  </si>
+  <si>
+    <t>BB00783</t>
+  </si>
+  <si>
+    <t>BB00787</t>
+  </si>
+  <si>
+    <t>BB00786</t>
+  </si>
+  <si>
+    <t>BB00784</t>
+  </si>
+  <si>
+    <t>BB00789</t>
+  </si>
+  <si>
+    <t>BB00785</t>
+  </si>
+  <si>
+    <t>איטלקית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עברית, אנגלית, ספרדית, ערבית, פולנית </t>
+  </si>
+  <si>
+    <t>רוסית, אנגלית, ספרדית</t>
+  </si>
+  <si>
+    <t>עברית, אנגלית, אוזבקית, ספרדית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אנגלית ערבית(בסיסית) רוסית עברית </t>
+  </si>
+  <si>
+    <t>אנגלית, פרסית, ספרדית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עברית אנגלית ספרדית </t>
+  </si>
+  <si>
+    <t>אנגלית, ערבית חלקית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הונגרית, אנגלית , רומנית </t>
+  </si>
+  <si>
+    <t>עברית, אנגלית, צרפתית</t>
+  </si>
+  <si>
+    <t>עברית, רוסית, אנגלית</t>
+  </si>
+  <si>
+    <t>עברית, אנגלית, הולנדית</t>
+  </si>
+  <si>
+    <t>אנגלית ספרדית גרמנית</t>
+  </si>
+  <si>
+    <t>בפרדית,אנגלית</t>
+  </si>
+  <si>
+    <t>english עברית</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -5362,26 +5659,30 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5412,6 +5713,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5426,7 +5733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -5458,6 +5765,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5775,8 +6084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D1C830-C80A-4987-AC2B-54C27ABB7F91}">
   <dimension ref="A1:C2523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A1630" workbookViewId="0">
+      <selection activeCell="G1640" sqref="G1640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22449,634 +22758,1390 @@
       </c>
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1524" s="2"/>
-      <c r="B1524" s="1"/>
-      <c r="C1524" s="1"/>
+      <c r="A1524" s="23" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1524" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1524" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1525" s="2"/>
-      <c r="B1525" s="1"/>
-      <c r="C1525" s="1"/>
+      <c r="A1525" s="24" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1525" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1525" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1526" s="2"/>
-      <c r="B1526" s="1"/>
-      <c r="C1526" s="1"/>
+      <c r="A1526" s="24" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1526" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1526" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1527" s="2"/>
-      <c r="B1527" s="1"/>
-      <c r="C1527" s="1"/>
+      <c r="A1527" s="24" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1527" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1527" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1528" s="2"/>
-      <c r="B1528" s="1"/>
-      <c r="C1528" s="1"/>
+      <c r="A1528" s="24" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1528" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1528" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1529" s="2"/>
-      <c r="B1529" s="1"/>
-      <c r="C1529" s="1"/>
+      <c r="A1529" s="24" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1529" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1529" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1530" s="2"/>
-      <c r="B1530" s="1"/>
-      <c r="C1530" s="1"/>
+      <c r="A1530" s="24" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1530" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1530" s="24" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1531" s="2"/>
-      <c r="B1531" s="1"/>
-      <c r="C1531" s="1"/>
+      <c r="A1531" s="24" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1531" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1531" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1532" s="2"/>
-      <c r="B1532" s="1"/>
-      <c r="C1532" s="1"/>
+      <c r="A1532" s="24" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1532" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1532" s="24" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1533" s="2"/>
-      <c r="B1533" s="1"/>
-      <c r="C1533" s="1"/>
+      <c r="A1533" s="24" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1533" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1533" s="24" t="s">
+        <v>1537</v>
+      </c>
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1534" s="2"/>
-      <c r="B1534" s="1"/>
-      <c r="C1534" s="1"/>
+      <c r="A1534" s="24">
+        <v>1115</v>
+      </c>
+      <c r="B1534" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1534" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1535" s="2"/>
-      <c r="B1535" s="1"/>
-      <c r="C1535" s="1"/>
+      <c r="A1535" s="24" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1535" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1535" s="24" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="1536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1536" s="2"/>
-      <c r="B1536" s="1"/>
-      <c r="C1536" s="1"/>
+      <c r="A1536" s="24" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1536" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1536" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1537" s="2"/>
-      <c r="B1537" s="1"/>
-      <c r="C1537" s="1"/>
+      <c r="A1537" s="24" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1537" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1537" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1538" s="2"/>
-      <c r="B1538" s="1"/>
-      <c r="C1538" s="1"/>
+      <c r="A1538" s="24" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1538" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1538" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1539" s="2"/>
-      <c r="B1539" s="1"/>
-      <c r="C1539" s="1"/>
+      <c r="A1539" s="24" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1539" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1539" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1540" s="2"/>
-      <c r="B1540" s="1"/>
-      <c r="C1540" s="1"/>
+      <c r="A1540" s="24" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1540" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1540" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1541" s="2"/>
-      <c r="B1541" s="1"/>
-      <c r="C1541" s="1"/>
+      <c r="A1541" s="24" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1541" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1541" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1542" s="2"/>
-      <c r="B1542" s="1"/>
-      <c r="C1542" s="1"/>
+      <c r="A1542" s="24" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1542" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1542" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1543" s="2"/>
-      <c r="B1543" s="1"/>
-      <c r="C1543" s="1"/>
+      <c r="A1543" s="24" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1543" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1543" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1544" s="2"/>
-      <c r="B1544" s="1"/>
-      <c r="C1544" s="1"/>
+      <c r="A1544" s="24" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1544" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1544" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1545" s="2"/>
-      <c r="B1545" s="1"/>
-      <c r="C1545" s="1"/>
+      <c r="A1545" s="24" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1545" s="24" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1545" s="24" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="1546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1546" s="2"/>
-      <c r="B1546" s="1"/>
-      <c r="C1546" s="1"/>
+      <c r="A1546" s="24" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1546" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1546" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1547" s="2"/>
-      <c r="B1547" s="1"/>
-      <c r="C1547" s="1"/>
+      <c r="A1547" s="24" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1547" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1547" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1548" s="2"/>
-      <c r="B1548" s="1"/>
-      <c r="C1548" s="1"/>
+      <c r="A1548" s="24" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1548" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1548" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1549" s="2"/>
-      <c r="B1549" s="1"/>
-      <c r="C1549" s="1"/>
+      <c r="A1549" s="24" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1549" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1549" s="24" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1550" s="2"/>
-      <c r="B1550" s="1"/>
-      <c r="C1550" s="1"/>
+      <c r="A1550" s="24" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1550" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1550" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1551" s="2"/>
-      <c r="B1551" s="1"/>
-      <c r="C1551" s="1"/>
+      <c r="A1551" s="24" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1551" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1551" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1552" s="2"/>
-      <c r="B1552" s="1"/>
-      <c r="C1552" s="1"/>
+      <c r="A1552" s="24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1552" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1552" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1553" s="2"/>
-      <c r="B1553" s="1"/>
-      <c r="C1553" s="1"/>
+      <c r="A1553" s="24" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1553" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1553" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1554" s="2"/>
-      <c r="B1554" s="1"/>
-      <c r="C1554" s="1"/>
+      <c r="A1554" s="24" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1554" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1554" s="24" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="1555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1555" s="2"/>
-      <c r="B1555" s="1"/>
-      <c r="C1555" s="1"/>
+      <c r="A1555" s="24" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1555" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1555" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1556" s="2"/>
-      <c r="B1556" s="1"/>
-      <c r="C1556" s="1"/>
+      <c r="A1556" s="24" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1556" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1556" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1557" s="2"/>
-      <c r="B1557" s="1"/>
-      <c r="C1557" s="1"/>
+      <c r="A1557" s="24" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1557" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1557" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1558" s="2"/>
-      <c r="B1558" s="1"/>
-      <c r="C1558" s="1"/>
+      <c r="A1558" s="24" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1558" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1558" s="24" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="1559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1559" s="2"/>
-      <c r="B1559" s="1"/>
-      <c r="C1559" s="1"/>
+      <c r="A1559" s="24" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1559" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1559" s="24" t="s">
+        <v>1854</v>
+      </c>
     </row>
     <row r="1560" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1560" s="2"/>
-      <c r="B1560" s="1"/>
-      <c r="C1560" s="1"/>
+      <c r="A1560" s="24" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1560" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1560" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1561" s="2"/>
-      <c r="B1561" s="1"/>
-      <c r="C1561" s="1"/>
+      <c r="A1561" s="24" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1561" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1561" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="1562" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1562" s="2"/>
-      <c r="B1562" s="1"/>
-      <c r="C1562" s="1"/>
+      <c r="A1562" s="24" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1562" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1562" s="24" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="1563" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1563" s="2"/>
-      <c r="B1563" s="1"/>
-      <c r="C1563" s="1"/>
+      <c r="A1563" s="24" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1563" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1563" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1564" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1564" s="2"/>
-      <c r="B1564" s="1"/>
-      <c r="C1564" s="1"/>
+      <c r="A1564" s="24" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1564" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1564" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1565" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1565" s="2"/>
-      <c r="B1565" s="1"/>
-      <c r="C1565" s="1"/>
+      <c r="A1565" s="24" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1565" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1565" s="24" t="s">
+        <v>1856</v>
+      </c>
     </row>
     <row r="1566" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1566" s="2"/>
-      <c r="B1566" s="1"/>
-      <c r="C1566" s="1"/>
+      <c r="A1566" s="24" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1566" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1566" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1567" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1567" s="2"/>
-      <c r="B1567" s="1"/>
-      <c r="C1567" s="1"/>
+      <c r="A1567" s="24" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1567" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1567" s="24" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="1568" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1568" s="2"/>
-      <c r="B1568" s="1"/>
-      <c r="C1568" s="1"/>
+      <c r="A1568" s="24">
+        <v>1128</v>
+      </c>
+      <c r="B1568" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1568" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1569" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1569" s="2"/>
-      <c r="B1569" s="1"/>
-      <c r="C1569" s="1"/>
+      <c r="A1569" s="24">
+        <v>1129</v>
+      </c>
+      <c r="B1569" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1569" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1570" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1570" s="2"/>
-      <c r="B1570" s="1"/>
-      <c r="C1570" s="1"/>
+      <c r="A1570" s="24">
+        <v>1124</v>
+      </c>
+      <c r="B1570" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1570" s="24" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="1571" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1571" s="2"/>
-      <c r="B1571" s="1"/>
-      <c r="C1571" s="1"/>
+      <c r="A1571" s="24" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1571" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1571" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1572" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1572" s="2"/>
-      <c r="B1572" s="1"/>
-      <c r="C1572" s="1"/>
+      <c r="A1572" s="24" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1572" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1572" s="24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1573" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1573" s="2"/>
-      <c r="B1573" s="1"/>
-      <c r="C1573" s="1"/>
+      <c r="A1573" s="24">
+        <v>1131</v>
+      </c>
+      <c r="B1573" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1573" s="24" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="1574" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1574" s="2"/>
-      <c r="B1574" s="1"/>
-      <c r="C1574" s="1"/>
+      <c r="A1574" s="24">
+        <v>1130</v>
+      </c>
+      <c r="B1574" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1574" s="24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="1575" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1575" s="2"/>
-      <c r="B1575" s="1"/>
-      <c r="C1575" s="1"/>
+      <c r="A1575" s="24" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1575" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1575" s="24" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="1576" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1576" s="2"/>
-      <c r="B1576" s="1"/>
-      <c r="C1576" s="1"/>
+      <c r="A1576" s="24" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1576" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1576" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1577" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1577" s="2"/>
-      <c r="B1577" s="1"/>
-      <c r="C1577" s="1"/>
+      <c r="A1577" s="24" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1577" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1577" s="24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="1578" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1578" s="2"/>
-      <c r="B1578" s="1"/>
-      <c r="C1578" s="1"/>
+      <c r="A1578" s="24">
+        <v>1132</v>
+      </c>
+      <c r="B1578" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1578" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1579" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1579" s="2"/>
-      <c r="B1579" s="1"/>
-      <c r="C1579" s="1"/>
+      <c r="A1579" s="24" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1579" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1579" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1580" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1580" s="2"/>
-      <c r="B1580" s="1"/>
-      <c r="C1580" s="1"/>
+      <c r="A1580" s="24">
+        <v>1127</v>
+      </c>
+      <c r="B1580" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1580" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1581" s="2"/>
-      <c r="B1581" s="1"/>
-      <c r="C1581" s="1"/>
+      <c r="A1581" s="24">
+        <v>1144</v>
+      </c>
+      <c r="B1581" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1581" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="1582" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1582" s="2"/>
-      <c r="B1582" s="1"/>
-      <c r="C1582" s="1"/>
+      <c r="A1582" s="24">
+        <v>1136</v>
+      </c>
+      <c r="B1582" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1582" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1583" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1583" s="2"/>
-      <c r="B1583" s="1"/>
-      <c r="C1583" s="1"/>
+      <c r="A1583" s="24">
+        <v>1140</v>
+      </c>
+      <c r="B1583" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1583" s="24" t="s">
+        <v>1857</v>
+      </c>
     </row>
     <row r="1584" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1584" s="2"/>
-      <c r="B1584" s="1"/>
-      <c r="C1584" s="1"/>
+      <c r="A1584" s="24">
+        <v>1142</v>
+      </c>
+      <c r="B1584" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1584" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1585" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1585" s="2"/>
-      <c r="B1585" s="1"/>
-      <c r="C1585" s="1"/>
+      <c r="A1585" s="24" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1585" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1585" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1586" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1586" s="2"/>
-      <c r="B1586" s="1"/>
-      <c r="C1586" s="1"/>
+      <c r="A1586" s="24" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1586" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="C1586" s="24" t="s">
+        <v>1858</v>
+      </c>
     </row>
     <row r="1587" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1587" s="2"/>
-      <c r="B1587" s="1"/>
-      <c r="C1587" s="1"/>
+      <c r="A1587" s="24">
+        <v>1141</v>
+      </c>
+      <c r="B1587" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1587" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1588" s="2"/>
-      <c r="B1588" s="1"/>
-      <c r="C1588" s="1"/>
+      <c r="A1588" s="24">
+        <v>1145</v>
+      </c>
+      <c r="B1588" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1588" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1589" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1589" s="2"/>
-      <c r="B1589" s="1"/>
-      <c r="C1589" s="1"/>
+      <c r="A1589" s="24" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1589" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1589" s="24" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="1590" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1590" s="2"/>
-      <c r="B1590" s="1"/>
-      <c r="C1590" s="1"/>
+      <c r="A1590" s="24" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1590" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1590" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1591" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1591" s="2"/>
-      <c r="B1591" s="1"/>
-      <c r="C1591" s="1"/>
+      <c r="A1591" s="24" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1591" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1591" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1592" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1592" s="2"/>
-      <c r="B1592" s="1"/>
-      <c r="C1592" s="1"/>
+      <c r="A1592" s="24" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1592" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1592" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1593" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1593" s="2"/>
-      <c r="B1593" s="1"/>
-      <c r="C1593" s="1"/>
+      <c r="A1593" s="24">
+        <v>1148</v>
+      </c>
+      <c r="B1593" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1593" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1594" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1594" s="2"/>
-      <c r="B1594" s="1"/>
-      <c r="C1594" s="1"/>
+      <c r="A1594" s="24">
+        <v>1146</v>
+      </c>
+      <c r="B1594" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1594" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1595" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1595" s="2"/>
-      <c r="B1595" s="1"/>
-      <c r="C1595" s="1"/>
+      <c r="A1595" s="24">
+        <v>1139</v>
+      </c>
+      <c r="B1595" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1595" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1596" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1596" s="2"/>
-      <c r="B1596" s="1"/>
-      <c r="C1596" s="1"/>
+      <c r="A1596" s="24">
+        <v>1152</v>
+      </c>
+      <c r="B1596" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1596" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1597" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1597" s="2"/>
-      <c r="B1597" s="1"/>
-      <c r="C1597" s="1"/>
+      <c r="A1597" s="24">
+        <v>1137</v>
+      </c>
+      <c r="B1597" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1597" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1598" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1598" s="2"/>
-      <c r="B1598" s="1"/>
-      <c r="C1598" s="1"/>
+      <c r="A1598" s="24">
+        <v>1151</v>
+      </c>
+      <c r="B1598" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1598" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1599" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1599" s="2"/>
-      <c r="B1599" s="1"/>
-      <c r="C1599" s="1"/>
+      <c r="A1599" s="24">
+        <v>1143</v>
+      </c>
+      <c r="B1599" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1599" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1600" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1600" s="2"/>
-      <c r="B1600" s="1"/>
-      <c r="C1600" s="1"/>
+      <c r="A1600" s="24">
+        <v>1156</v>
+      </c>
+      <c r="B1600" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1600" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1601" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1601" s="2"/>
-      <c r="B1601" s="1"/>
-      <c r="C1601" s="1"/>
+      <c r="A1601" s="24">
+        <v>1157</v>
+      </c>
+      <c r="B1601" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1601" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1602" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1602" s="2"/>
-      <c r="B1602" s="1"/>
-      <c r="C1602" s="1"/>
+      <c r="A1602" s="24" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1602" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1602" s="24" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="1603" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1603" s="2"/>
-      <c r="B1603" s="1"/>
-      <c r="C1603" s="1"/>
+      <c r="A1603" s="24">
+        <v>1155</v>
+      </c>
+      <c r="B1603" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1603" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1604" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1604" s="2"/>
-      <c r="B1604" s="1"/>
-      <c r="C1604" s="1"/>
+      <c r="A1604" s="24">
+        <v>1161</v>
+      </c>
+      <c r="B1604" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1604" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="1605" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1605" s="2"/>
-      <c r="B1605" s="1"/>
-      <c r="C1605" s="1"/>
+      <c r="A1605" s="24" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1605" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1605" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1606" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1606" s="2"/>
-      <c r="B1606" s="1"/>
-      <c r="C1606" s="1"/>
+      <c r="A1606" s="24">
+        <v>1147</v>
+      </c>
+      <c r="B1606" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1606" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1607" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1607" s="2"/>
-      <c r="B1607" s="1"/>
-      <c r="C1607" s="1"/>
+      <c r="A1607" s="24">
+        <v>1153</v>
+      </c>
+      <c r="B1607" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1607" s="24" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="1608" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1608" s="2"/>
-      <c r="B1608" s="1"/>
-      <c r="C1608" s="1"/>
+      <c r="A1608" s="24">
+        <v>1163</v>
+      </c>
+      <c r="B1608" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1608" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1609" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1609" s="2"/>
-      <c r="B1609" s="1"/>
-      <c r="C1609" s="1"/>
+      <c r="A1609" s="24" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1609" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1609" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1610" s="2"/>
-      <c r="B1610" s="1"/>
-      <c r="C1610" s="1"/>
+      <c r="A1610" s="24" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1610" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1610" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1611" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1611" s="2"/>
-      <c r="B1611" s="1"/>
-      <c r="C1611" s="1"/>
+      <c r="A1611" s="24" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1611" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1611" s="24" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="1612" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1612" s="2"/>
-      <c r="B1612" s="1"/>
-      <c r="C1612" s="1"/>
+      <c r="A1612" s="24" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1612" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1612" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1613" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1613" s="2"/>
-      <c r="B1613" s="1"/>
-      <c r="C1613" s="1"/>
+      <c r="A1613" s="24">
+        <v>1162</v>
+      </c>
+      <c r="B1613" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1613" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1614" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1614" s="2"/>
-      <c r="B1614" s="1"/>
-      <c r="C1614" s="1"/>
+      <c r="A1614" s="24">
+        <v>1158</v>
+      </c>
+      <c r="B1614" s="24" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1614" s="24" t="s">
+        <v>1861</v>
+      </c>
     </row>
     <row r="1615" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1615" s="2"/>
-      <c r="B1615" s="1"/>
-      <c r="C1615" s="1"/>
+      <c r="A1615" s="24">
+        <v>1150</v>
+      </c>
+      <c r="B1615" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1615" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1616" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1616" s="2"/>
-      <c r="B1616" s="1"/>
-      <c r="C1616" s="1"/>
+      <c r="A1616" s="24" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1616" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1616" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1617" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1617" s="2"/>
-      <c r="B1617" s="1"/>
-      <c r="C1617" s="1"/>
+      <c r="A1617" s="24" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1617" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1617" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1618" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1618" s="2"/>
-      <c r="B1618" s="1"/>
-      <c r="C1618" s="1"/>
+      <c r="A1618" s="24">
+        <v>1165</v>
+      </c>
+      <c r="B1618" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1618" s="24" t="s">
+        <v>1862</v>
+      </c>
     </row>
     <row r="1619" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1619" s="2"/>
-      <c r="B1619" s="1"/>
-      <c r="C1619" s="1"/>
+      <c r="A1619" s="24" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1619" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1619" s="24" t="s">
+        <v>1863</v>
+      </c>
     </row>
     <row r="1620" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1620" s="2"/>
-      <c r="B1620" s="1"/>
-      <c r="C1620" s="1"/>
+      <c r="A1620" s="24" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1620" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1620" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1621" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1621" s="2"/>
-      <c r="B1621" s="1"/>
-      <c r="C1621" s="1"/>
+      <c r="A1621" s="24" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1621" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1621" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1622" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1622" s="2"/>
-      <c r="B1622" s="1"/>
-      <c r="C1622" s="1"/>
+      <c r="A1622" s="24" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1622" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1622" s="24" t="s">
+        <v>1581</v>
+      </c>
     </row>
     <row r="1623" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1623" s="2"/>
-      <c r="B1623" s="1"/>
-      <c r="C1623" s="1"/>
+      <c r="A1623" s="24">
+        <v>1167</v>
+      </c>
+      <c r="B1623" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1623" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1624" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1624" s="2"/>
-      <c r="B1624" s="1"/>
-      <c r="C1624" s="1"/>
+      <c r="A1624" s="24">
+        <v>1165</v>
+      </c>
+      <c r="B1624" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1624" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1625" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1625" s="2"/>
-      <c r="B1625" s="1"/>
-      <c r="C1625" s="1"/>
+      <c r="A1625" s="24" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1625" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1625" s="24" t="s">
+        <v>1864</v>
+      </c>
     </row>
     <row r="1626" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1626" s="2"/>
-      <c r="B1626" s="1"/>
-      <c r="C1626" s="1"/>
+      <c r="A1626" s="24" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1626" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1626" s="24" t="s">
+        <v>1865</v>
+      </c>
     </row>
     <row r="1627" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1627" s="2"/>
-      <c r="B1627" s="1"/>
-      <c r="C1627" s="1"/>
+      <c r="A1627" s="24" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1627" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1627" s="24" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="1628" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1628" s="2"/>
-      <c r="B1628" s="1"/>
-      <c r="C1628" s="1"/>
+      <c r="A1628" s="24" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1628" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1628" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1629" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1629" s="2"/>
-      <c r="B1629" s="1"/>
-      <c r="C1629" s="1"/>
+      <c r="A1629" s="24" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1629" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1629" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1630" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1630" s="2"/>
-      <c r="B1630" s="1"/>
-      <c r="C1630" s="1"/>
+      <c r="A1630" s="24" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1630" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1630" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1631" s="2"/>
-      <c r="B1631" s="1"/>
-      <c r="C1631" s="1"/>
+      <c r="A1631" s="24" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1631" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1631" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="1632" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1632" s="2"/>
-      <c r="B1632" s="1"/>
-      <c r="C1632" s="1"/>
+      <c r="A1632" s="24" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1632" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1632" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1633" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1633" s="2"/>
-      <c r="B1633" s="1"/>
-      <c r="C1633" s="1"/>
+      <c r="A1633" s="24">
+        <v>1166</v>
+      </c>
+      <c r="B1633" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1633" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1634" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1634" s="2"/>
-      <c r="B1634" s="1"/>
-      <c r="C1634" s="1"/>
+      <c r="A1634" s="24" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1634" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1634" s="24" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="1635" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1635" s="2"/>
-      <c r="B1635" s="1"/>
-      <c r="C1635" s="1"/>
+      <c r="A1635" s="24">
+        <v>1172</v>
+      </c>
+      <c r="B1635" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1635" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1636" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1636" s="2"/>
-      <c r="B1636" s="1"/>
-      <c r="C1636" s="1"/>
+      <c r="A1636" s="24">
+        <v>1171</v>
+      </c>
+      <c r="B1636" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1636" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1637" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1637" s="2"/>
-      <c r="B1637" s="1"/>
-      <c r="C1637" s="1"/>
+      <c r="A1637" s="24">
+        <v>1171</v>
+      </c>
+      <c r="B1637" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1637" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1638" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1638" s="2"/>
-      <c r="B1638" s="1"/>
-      <c r="C1638" s="1"/>
+      <c r="A1638" s="24" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1638" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1638" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1639" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1639" s="2"/>
-      <c r="B1639" s="1"/>
-      <c r="C1639" s="1"/>
+      <c r="A1639" s="24">
+        <v>1173</v>
+      </c>
+      <c r="B1639" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1639" s="24" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="1640" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1640" s="2"/>
-      <c r="B1640" s="1"/>
-      <c r="C1640" s="1"/>
+      <c r="A1640" s="24" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1640" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1640" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1641" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1641" s="2"/>
-      <c r="B1641" s="1"/>
-      <c r="C1641" s="1"/>
+      <c r="A1641" s="24">
+        <v>1174</v>
+      </c>
+      <c r="B1641" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1641" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1642" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1642" s="2"/>
-      <c r="B1642" s="1"/>
-      <c r="C1642" s="1"/>
+      <c r="A1642" s="24" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1642" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1642" s="24" t="s">
+        <v>1866</v>
+      </c>
     </row>
     <row r="1643" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1643" s="2"/>
-      <c r="B1643" s="1"/>
-      <c r="C1643" s="1"/>
+      <c r="A1643" s="24" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1643" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1643" s="24" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="1644" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1644" s="2"/>
-      <c r="B1644" s="1"/>
-      <c r="C1644" s="1"/>
+      <c r="A1644" s="24" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1644" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1644" s="24" t="s">
+        <v>1867</v>
+      </c>
     </row>
     <row r="1645" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1645" s="2"/>
-      <c r="B1645" s="1"/>
-      <c r="C1645" s="1"/>
+      <c r="A1645" s="24" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1645" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1645" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1646" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1646" s="2"/>
-      <c r="B1646" s="1"/>
-      <c r="C1646" s="1"/>
+      <c r="A1646" s="24" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1646" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1646" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1647" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1647" s="2"/>
-      <c r="B1647" s="1"/>
-      <c r="C1647" s="1"/>
+      <c r="A1647" s="24">
+        <v>1178</v>
+      </c>
+      <c r="B1647" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1647" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1648" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1648" s="2"/>
-      <c r="B1648" s="1"/>
-      <c r="C1648" s="1"/>
+      <c r="A1648" s="24">
+        <v>1186</v>
+      </c>
+      <c r="B1648" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1648" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="1649" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1649" s="2"/>
-      <c r="B1649" s="1"/>
-      <c r="C1649" s="1"/>
+      <c r="A1649" s="24">
+        <v>1184</v>
+      </c>
+      <c r="B1649" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1649" s="24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="1650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1650" s="2"/>
